--- a/Comparação-entre-lojas.xlsx
+++ b/Comparação-entre-lojas.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\n3xus\OneDrive\Documentos\Trabalho\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\n3xus\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC95CA6C-BBBE-4129-96B9-18A3877A03B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2790" yWindow="0" windowWidth="23070" windowHeight="10215"/>
+    <workbookView xWindow="-120" yWindow="480" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,8 +19,7 @@
   <definedNames>
     <definedName name="SegmentaçãodeDados_Produtos1">#N/A</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
-  <fileRecoveryPr repairLoad="1"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr/>
@@ -108,11 +108,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="_([$R$ -416]* #,##0.00_);_([$R$ -416]* \(#,##0.00\);_([$R$ -416]* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -120,8 +120,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -131,6 +139,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor theme="0" tint="-0.14999847407452621"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor theme="0" tint="-0.14999847407452621"/>
       </patternFill>
     </fill>
@@ -150,24 +170,146 @@
   <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="13">
+  <dxfs count="17">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_([$R$ -416]* #,##0.00_);_([$R$ -416]* \(#,##0.00\);_([$R$ -416]* &quot;-&quot;??_);_(@_)"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="0" tint="-0.14999847407452621"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="0" tint="-0.14999847407452621"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_([$R$ -416]* #,##0.00_);_([$R$ -416]* \(#,##0.00\);_([$R$ -416]* &quot;-&quot;??_);_(@_)"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="0" tint="-0.14999847407452621"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="0" tint="-0.14999847407452621"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -280,105 +422,11 @@
       <numFmt numFmtId="164" formatCode="_([$R$ -416]* #,##0.00_);_([$R$ -416]* \(#,##0.00\);_([$R$ -416]* &quot;-&quot;??_);_(@_)"/>
     </dxf>
     <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="_([$R$ -416]* #,##0.00_);_([$R$ -416]* \(#,##0.00\);_([$R$ -416]* &quot;-&quot;??_);_(@_)"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="0" tint="-0.14999847407452621"/>
-          <bgColor theme="0" tint="-0.14999847407452621"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="0" tint="-0.14999847407452621"/>
-          <bgColor theme="0" tint="-0.14999847407452621"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <border outline="0">
         <bottom style="thin">
           <color theme="1"/>
         </bottom>
       </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="_([$R$ -416]* #,##0.00_);_([$R$ -416]* \(#,##0.00\);_([$R$ -416]* &quot;-&quot;??_);_(@_)"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="0" tint="-0.14999847407452621"/>
-          <bgColor theme="0" tint="-0.14999847407452621"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="0" tint="-0.14999847407452621"/>
-          <bgColor theme="0" tint="-0.14999847407452621"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <border outline="0">
@@ -515,7 +563,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -540,7 +587,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Abacaxi Pérola unid</c:v>
+                  <c:v>Cenoura 500g</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -552,7 +599,7 @@
                 <c:formatCode>_([$R$ -416]* #,##0.00_);_([$R$ -416]* \(#,##0.00\);_([$R$ -416]* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>8.69</c:v>
+                  <c:v>2.74</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -647,7 +694,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -673,7 +719,7 @@
                 <c:formatCode>_([$R$ -416]* #,##0.00_);_([$R$ -416]* \(#,##0.00\);_([$R$ -416]* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>10.39</c:v>
+                  <c:v>2.39</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -819,7 +865,7 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="0.88435681687546308"/>
-          <c:y val="0.15457955160185133"/>
+          <c:y val="0.1545795516018513"/>
           <c:w val="9.4535003705011805E-2"/>
           <c:h val="0.51781290697441451"/>
         </c:manualLayout>
@@ -835,7 +881,7 @@
         </a:effectLst>
       </c:spPr>
       <c:txPr>
-        <a:bodyPr rot="5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="t" anchorCtr="0"/>
+        <a:bodyPr rot="5400000" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="t" anchorCtr="0"/>
         <a:lstStyle/>
         <a:p>
           <a:pPr>
@@ -879,12 +925,7 @@
       <a:schemeClr val="bg1"/>
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
+      <a:noFill/>
       <a:round/>
     </a:ln>
     <a:effectLst/>
@@ -1373,7 +1414,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1412,12 +1452,7 @@
       <a:schemeClr val="bg1"/>
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
+      <a:noFill/>
       <a:round/>
     </a:ln>
     <a:effectLst/>
@@ -2624,21 +2659,27 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>295274</xdr:colOff>
+      <xdr:colOff>209549</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>9524</xdr:rowOff>
+      <xdr:rowOff>142874</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
       <xdr:row>44</xdr:row>
-      <xdr:rowOff>19049</xdr:rowOff>
+      <xdr:rowOff>152399</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" Requires="sle15">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
-            <xdr:cNvPr id="6" name="Produtos 1"/>
+            <xdr:cNvPr id="6" name="Produtos 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvGraphicFramePr/>
           </xdr:nvGraphicFramePr>
           <xdr:xfrm>
@@ -2662,8 +2703,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="3914774" y="3057524"/>
-              <a:ext cx="3857626" cy="2676525"/>
+              <a:off x="3829049" y="3190874"/>
+              <a:ext cx="3863010" cy="2676525"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -2683,8 +2724,8 @@
             <a:p>
               <a:r>
                 <a:rPr lang="pt-BR" sz="1100"/>
-                <a:t>Esta forma representa uma segmentação de dados de tabela. Segmentações de dados de tabela têm suporte no Excel ou em versões posteriores.
-Se a forma tiver sido modificada em uma versão anterior do Excel, ou se a pasta de trabalho tiver sido salva no Excel 2007 ou em versões anteriores, a segmentação de dados não poderá ser usada.</a:t>
+                <a:t>Esta forma representa um slicer da tabela. As segmentações de dados da tabela não são suportadas nesta versão do Excel.
+Se a forma tiver sido modificada em uma versão anterior do Excel, ou se a pasta de trabalho foi salva no Excel 2007 ou anterior, a segmentação de dados não pode ser usada.</a:t>
               </a:r>
             </a:p>
           </xdr:txBody>
@@ -2696,19 +2737,25 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>38100</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>819150</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="9" name="Gráfico 8"/>
+        <xdr:cNvPr id="9" name="Gráfico 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000009000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -2726,19 +2773,25 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:colOff>695739</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>829</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>19049</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>143288</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:rowOff>77029</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="11" name="Gráfico 10"/>
+        <xdr:cNvPr id="11" name="Gráfico 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -2757,7 +2810,7 @@
 </file>
 
 <file path=xl/slicerCaches/slicerCache1.xml><?xml version="1.0" encoding="utf-8"?>
-<slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x" name="SegmentaçãodeDados_Produtos1" sourceName="Produtos">
+<slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10" name="SegmentaçãodeDados_Produtos1" xr10:uid="{00000000-0013-0000-FFFF-FFFF01000000}" sourceName="Produtos">
   <extLst>
     <x:ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{2F2917AC-EB37-4324-AD4E-5DD8C200BD13}">
       <x15:tableSlicerCache tableId="8" column="1"/>
@@ -2767,80 +2820,80 @@
 </file>
 
 <file path=xl/slicers/slicer1.xml><?xml version="1.0" encoding="utf-8"?>
-<slicers xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x">
-  <slicer name="Produtos 1" cache="SegmentaçãodeDados_Produtos1" caption="Produtos" columnCount="2" rowHeight="241300"/>
+<slicers xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10">
+  <slicer name="Produtos 1" xr10:uid="{00000000-0014-0000-FFFF-FFFF01000000}" cache="SegmentaçãodeDados_Produtos1" caption="Produtos" columnCount="2" style="SlicerStyleLight3" rowHeight="241300"/>
 </slicers>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Table6" displayName="Table6" ref="A18:B33" totalsRowShown="0" tableBorderDxfId="12">
-  <autoFilter ref="A18:B33"/>
-  <sortState ref="A21:B21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table6" displayName="Table6" ref="A18:B33" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4" tableBorderDxfId="16">
+  <autoFilter ref="A18:B33" xr:uid="{00000000-0009-0000-0100-000006000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A21:B21">
     <sortCondition descending="1" ref="A2:A17"/>
   </sortState>
   <tableColumns count="2">
-    <tableColumn id="1" name="Produtos" dataDxfId="11"/>
-    <tableColumn id="2" name="Valor" dataDxfId="10"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Produtos" dataDxfId="7"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Valor" dataDxfId="6"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="Table8" displayName="Table8" ref="C18:D33" totalsRowShown="0" tableBorderDxfId="9">
-  <autoFilter ref="C18:D33">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table8" displayName="Table8" ref="C18:D33" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0" tableBorderDxfId="15">
+  <autoFilter ref="C18:D33" xr:uid="{00000000-0009-0000-0100-000008000000}">
     <filterColumn colId="0">
       <filters>
-        <filter val="Abacaxi Pérola unid"/>
+        <filter val="Cenoura 500g"/>
       </filters>
     </filterColumn>
   </autoFilter>
-  <sortState ref="C19:D33">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="C19:D33">
     <sortCondition ref="C2:C17"/>
   </sortState>
   <tableColumns count="2">
-    <tableColumn id="1" name="Produtos" dataDxfId="8"/>
-    <tableColumn id="2" name="Valor" dataDxfId="7"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Produtos" dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Valor" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:C31" totalsRowShown="0">
-  <autoFilter ref="A1:C31"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table1" displayName="Table1" ref="A1:C31" totalsRowShown="0">
+  <autoFilter ref="A1:C31" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="3">
-    <tableColumn id="1" name="Produtos"/>
-    <tableColumn id="2" name="Supermercado"/>
-    <tableColumn id="3" name="Preço" dataDxfId="6"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Produtos"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Supermercado"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="Preço" dataDxfId="14"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table63" displayName="Table63" ref="E2:F17" totalsRowShown="0" tableBorderDxfId="5">
-  <autoFilter ref="E2:F17"/>
-  <sortState ref="E3:F3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Table63" displayName="Table63" ref="E2:F17" totalsRowShown="0" tableBorderDxfId="13">
+  <autoFilter ref="E2:F17" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="E3:F3">
     <sortCondition descending="1" ref="E2:E17"/>
   </sortState>
   <tableColumns count="2">
-    <tableColumn id="1" name="Produtos" dataDxfId="4"/>
-    <tableColumn id="2" name="Valor" dataDxfId="3"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="Produtos" dataDxfId="12"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="Valor" dataDxfId="11"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table84" displayName="Table84" ref="H2:I17" totalsRowShown="0" tableBorderDxfId="2">
-  <autoFilter ref="H2:I17"/>
-  <sortState ref="H3:I17">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="Table84" displayName="Table84" ref="H2:I17" totalsRowShown="0" tableBorderDxfId="10">
+  <autoFilter ref="H2:I17" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="H3:I17">
     <sortCondition ref="H2:H17"/>
   </sortState>
   <tableColumns count="2">
-    <tableColumn id="1" name="Produtos" dataDxfId="1"/>
-    <tableColumn id="2" name="Valor" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0400-000001000000}" name="Produtos" dataDxfId="9"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0400-000002000000}" name="Valor" dataDxfId="8"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3108,253 +3161,255 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E33"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:L33"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.28515625" customWidth="1"/>
-    <col min="2" max="2" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" customWidth="1"/>
-    <col min="7" max="7" width="10.28515625" customWidth="1"/>
-    <col min="8" max="8" width="12" customWidth="1"/>
-    <col min="9" max="9" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.28515625" style="5" customWidth="1"/>
+    <col min="2" max="2" width="9.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="5" customWidth="1"/>
+    <col min="7" max="7" width="10.28515625" style="5" customWidth="1"/>
+    <col min="8" max="8" width="12" style="5" customWidth="1"/>
+    <col min="9" max="9" width="8.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="8"/>
-      <c r="B1" s="8"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" s="6"/>
+      <c r="B1" s="6"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L14" s="10"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+      <c r="A18" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C18" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D18" s="5" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="4" t="s">
+    <row r="19" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B19" s="5">
+      <c r="B19" s="7">
         <v>8.69</v>
       </c>
-      <c r="C19" s="4" t="s">
+      <c r="C19" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="D19" s="5">
+      <c r="D19" s="7">
         <v>10.39</v>
       </c>
     </row>
     <row r="20" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
+      <c r="A20" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="B20" s="3">
+      <c r="B20" s="9">
         <v>2.38</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="C20" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="D20" s="3">
+      <c r="D20" s="9">
         <v>4.3099999999999996</v>
       </c>
     </row>
     <row r="21" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="4" t="s">
+      <c r="A21" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B21" s="5">
+      <c r="B21" s="7">
         <v>6.39</v>
       </c>
-      <c r="C21" s="4" t="s">
+      <c r="C21" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D21" s="5">
+      <c r="D21" s="7">
         <v>6.79</v>
       </c>
     </row>
     <row r="22" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
+      <c r="A22" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B22" s="3">
+      <c r="B22" s="9">
         <v>2.99</v>
       </c>
-      <c r="C22" s="2" t="s">
+      <c r="C22" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="D22" s="3">
+      <c r="D22" s="9">
         <v>2.8</v>
       </c>
     </row>
-    <row r="23" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="6" t="s">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B23" s="7">
+      <c r="B23" s="9">
         <v>2.74</v>
       </c>
-      <c r="C23" s="6" t="s">
+      <c r="C23" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="D23" s="7">
+      <c r="D23" s="9">
         <v>2.39</v>
       </c>
     </row>
     <row r="24" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="4" t="s">
+      <c r="A24" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B24" s="5">
+      <c r="B24" s="7">
         <v>3.49</v>
       </c>
-      <c r="C24" s="4" t="s">
+      <c r="C24" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D24" s="5">
+      <c r="D24" s="7">
         <v>4.55</v>
       </c>
     </row>
     <row r="25" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="2" t="s">
+      <c r="A25" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B25" s="3">
+      <c r="B25" s="9">
         <v>1.47</v>
       </c>
-      <c r="C25" s="2" t="s">
+      <c r="C25" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D25" s="3">
+      <c r="D25" s="9">
         <v>1.99</v>
       </c>
     </row>
     <row r="26" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="2" t="s">
+      <c r="A26" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B26" s="3">
+      <c r="B26" s="9">
         <v>8.49</v>
       </c>
-      <c r="C26" s="2" t="s">
+      <c r="C26" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D26" s="3">
+      <c r="D26" s="9">
         <v>10.99</v>
       </c>
     </row>
     <row r="27" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="4" t="s">
+      <c r="A27" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B27" s="5">
+      <c r="B27" s="7">
         <v>14.38</v>
       </c>
-      <c r="C27" s="4" t="s">
+      <c r="C27" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D27" s="5">
+      <c r="D27" s="7">
         <v>23.98</v>
       </c>
     </row>
     <row r="28" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="2" t="s">
+      <c r="A28" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B28" s="3">
+      <c r="B28" s="9">
         <v>2.99</v>
       </c>
-      <c r="C28" s="2" t="s">
+      <c r="C28" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="D28" s="3">
+      <c r="D28" s="9">
         <v>4.99</v>
       </c>
     </row>
     <row r="29" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="4" t="s">
+      <c r="A29" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B29" s="5">
+      <c r="B29" s="7">
         <v>13.99</v>
       </c>
-      <c r="C29" s="4" t="s">
+      <c r="C29" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D29" s="5">
+      <c r="D29" s="7">
         <v>11.69</v>
       </c>
     </row>
     <row r="30" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="2" t="s">
+      <c r="A30" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B30" s="3">
+      <c r="B30" s="9">
         <v>6.89</v>
       </c>
-      <c r="C30" s="2" t="s">
+      <c r="C30" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="D30" s="3">
+      <c r="D30" s="9">
         <v>11.99</v>
       </c>
     </row>
     <row r="31" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="4" t="s">
+      <c r="A31" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B31" s="5">
+      <c r="B31" s="7">
         <v>5.43</v>
       </c>
-      <c r="C31" s="4" t="s">
+      <c r="C31" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D31" s="5">
+      <c r="D31" s="7">
         <v>8</v>
       </c>
     </row>
     <row r="32" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="2" t="s">
+      <c r="A32" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="B32" s="3">
+      <c r="B32" s="9">
         <v>11.99</v>
       </c>
-      <c r="C32" s="2" t="s">
+      <c r="C32" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D32" s="3">
+      <c r="D32" s="9">
         <v>11.99</v>
       </c>
     </row>
     <row r="33" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="4" t="s">
+      <c r="A33" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B33" s="5">
+      <c r="B33" s="7">
         <v>8.99</v>
       </c>
-      <c r="C33" s="4" t="s">
+      <c r="C33" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D33" s="5">
+      <c r="D33" s="7">
         <v>16.39</v>
       </c>
     </row>
@@ -3377,7 +3432,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3405,14 +3460,14 @@
       <c r="C1" t="s">
         <v>19</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="F1" s="9"/>
-      <c r="H1" s="9" t="s">
+      <c r="F1" s="4"/>
+      <c r="H1" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="I1" s="9"/>
+      <c r="I1" s="4"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -3447,16 +3502,16 @@
       <c r="C3" s="1">
         <v>2.38</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" t="s">
         <v>20</v>
       </c>
-      <c r="F3" s="5">
+      <c r="F3" s="1">
         <v>8.69</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="H3" t="s">
         <v>20</v>
       </c>
-      <c r="I3" s="5">
+      <c r="I3" s="1">
         <v>10.39</v>
       </c>
     </row>
@@ -3493,16 +3548,16 @@
       <c r="C5" s="1">
         <v>8.69</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E5" t="s">
         <v>12</v>
       </c>
-      <c r="F5" s="5">
+      <c r="F5" s="1">
         <v>6.39</v>
       </c>
-      <c r="H5" s="4" t="s">
+      <c r="H5" t="s">
         <v>12</v>
       </c>
-      <c r="I5" s="5">
+      <c r="I5" s="1">
         <v>6.79</v>
       </c>
     </row>
@@ -3539,16 +3594,16 @@
       <c r="C7" s="1">
         <v>1.47</v>
       </c>
-      <c r="E7" s="6" t="s">
+      <c r="E7" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F7" s="7">
+      <c r="F7" s="3">
         <v>2.74</v>
       </c>
-      <c r="H7" s="6" t="s">
+      <c r="H7" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="I7" s="7">
+      <c r="I7" s="3">
         <v>2.39</v>
       </c>
     </row>
@@ -3562,16 +3617,16 @@
       <c r="C8" s="1">
         <v>4.55</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="E8" t="s">
         <v>3</v>
       </c>
-      <c r="F8" s="5">
+      <c r="F8" s="1">
         <v>3.49</v>
       </c>
-      <c r="H8" s="4" t="s">
+      <c r="H8" t="s">
         <v>3</v>
       </c>
-      <c r="I8" s="5">
+      <c r="I8" s="1">
         <v>4.55</v>
       </c>
     </row>
@@ -3631,16 +3686,16 @@
       <c r="C11" s="1">
         <v>2.99</v>
       </c>
-      <c r="E11" s="4" t="s">
+      <c r="E11" t="s">
         <v>4</v>
       </c>
-      <c r="F11" s="5">
+      <c r="F11" s="1">
         <v>14.38</v>
       </c>
-      <c r="H11" s="4" t="s">
+      <c r="H11" t="s">
         <v>4</v>
       </c>
-      <c r="I11" s="5">
+      <c r="I11" s="1">
         <v>23.98</v>
       </c>
     </row>
@@ -3677,16 +3732,16 @@
       <c r="C13" s="1">
         <v>14.38</v>
       </c>
-      <c r="E13" s="4" t="s">
+      <c r="E13" t="s">
         <v>10</v>
       </c>
-      <c r="F13" s="5">
+      <c r="F13" s="1">
         <v>13.99</v>
       </c>
-      <c r="H13" s="4" t="s">
+      <c r="H13" t="s">
         <v>9</v>
       </c>
-      <c r="I13" s="5">
+      <c r="I13" s="1">
         <v>11.69</v>
       </c>
     </row>
@@ -3723,16 +3778,16 @@
       <c r="C15" s="1">
         <v>6.89</v>
       </c>
-      <c r="E15" s="4" t="s">
+      <c r="E15" t="s">
         <v>7</v>
       </c>
-      <c r="F15" s="5">
+      <c r="F15" s="1">
         <v>5.43</v>
       </c>
-      <c r="H15" s="4" t="s">
+      <c r="H15" t="s">
         <v>7</v>
       </c>
-      <c r="I15" s="5">
+      <c r="I15" s="1">
         <v>8</v>
       </c>
     </row>
@@ -3769,16 +3824,16 @@
       <c r="C17" s="1">
         <v>5.43</v>
       </c>
-      <c r="E17" s="4" t="s">
+      <c r="E17" t="s">
         <v>15</v>
       </c>
-      <c r="F17" s="5">
+      <c r="F17" s="1">
         <v>8.99</v>
       </c>
-      <c r="H17" s="4" t="s">
+      <c r="H17" t="s">
         <v>14</v>
       </c>
-      <c r="I17" s="5">
+      <c r="I17" s="1">
         <v>16.39</v>
       </c>
     </row>
